--- a/AKRO.xlsx
+++ b/AKRO.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7CF438-66B1-4E01-A55F-AFC0D5DF6076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4037F30-A330-4ED3-A3E8-77EC6299F3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11550" yWindow="4070" windowWidth="22530" windowHeight="16580" xr2:uid="{09AE9FEE-F9BE-4797-AA29-D61C430F1EED}"/>
+    <workbookView xWindow="38710" yWindow="1330" windowWidth="24980" windowHeight="11030" activeTab="1" xr2:uid="{09AE9FEE-F9BE-4797-AA29-D61C430F1EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="efruxifermin" sheetId="2" r:id="rId2"/>
+    <sheet name="Model" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>Price</t>
   </si>
@@ -87,29 +88,149 @@
     <t>Clinical Trials</t>
   </si>
   <si>
-    <t>Phase IIb "SYMMETRY" F4 MASH</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
-    <t>39% reversal of cirrhosis with no worsening of MASH vs. 15% for placebo</t>
-  </si>
-  <si>
-    <t>29% reversal of cirrhosis with no worsening of MASH vs. 12% in placebo.</t>
-  </si>
-  <si>
     <t>MOA</t>
   </si>
   <si>
     <t>FGF21 mimetic</t>
+  </si>
+  <si>
+    <t>50mg qw vs. placebo</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>NAFL</t>
+  </si>
+  <si>
+    <t>NASH</t>
+  </si>
+  <si>
+    <t>39% reversal of cirrhosis with no worsening of MASH vs. 15% for placebo at 96 weeks.</t>
+  </si>
+  <si>
+    <t>29% reversal of cirrhosis with no worsening of MASH vs. 12% in placebo using ITT at 96 weeks.</t>
+  </si>
+  <si>
+    <t>Phase III "SYNCHRONY Real World" n=601 - results 1H26</t>
+  </si>
+  <si>
+    <t>40% regression of fibrosis at 96 weeks vs. 0% for placebo.</t>
+  </si>
+  <si>
+    <t>n=61 placebo, 12% histology endpoint</t>
+  </si>
+  <si>
+    <t>n=57 28mg, 21% histology endpoint</t>
+  </si>
+  <si>
+    <t>n=63 50mg, 29% histology endpoint</t>
+  </si>
+  <si>
+    <t>histology endpoint: &gt;= 1 stage fibrosis improvement without worsening MASH</t>
+  </si>
+  <si>
+    <t>CEO: Andrew Cheng</t>
+  </si>
+  <si>
+    <t>Phase IIb "SYMMETRY" n=182 F4 MASH</t>
+  </si>
+  <si>
+    <t>NAFLD/MAFLD: 1.27B global cases. MAFLD prevalence 32.4%</t>
+  </si>
+  <si>
+    <t>MASH - 2-5% of MAFLD = 0.6-1.5% global prevalence. In the US, 3m patients?</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Patients</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Mechanism</t>
+  </si>
+  <si>
+    <t>FGF21 analog</t>
+  </si>
+  <si>
+    <t>14%, 22%, 24% for placebo, 28mg, 50mg at 36 weeks</t>
+  </si>
+  <si>
+    <t>Phase IIb "HARMONY" pre-cirrhotic MASH (F2-F3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The trial previously met its primary endpoint of ≥1 stage improvement in fibrosis with no worsening of MASH after 24 weeks of treatment for both the 50mg EFX (41%, p&lt;0.001) and 28mg EFX (39%, p&lt;0.001) dose groups, compared to 20% for the placebo arm. At week 96, the response rates on this endpoint increased to 75% (p&lt;0.001) for 50mg EFX and 46% for 28mg EFX, compared to 24% for placebo. </t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Amgen</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>12 years BLA exclusivity, more patents until 2045, probably hard to make?</t>
+  </si>
+  <si>
+    <t>Phase III "SYNCHRONY Histology" n=1650 - results 1H2027</t>
+  </si>
+  <si>
+    <t>Phase III "SYNCHRONY Outcomes" n=1150 F4 MASH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +262,13 @@
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -254,7 +382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -265,7 +393,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -274,6 +401,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -290,6 +420,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>98855</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>113511</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>32008</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E8C5C5-6FF6-AAEB-93C1-656192880235}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7927498" y="1442357"/>
+          <a:ext cx="9131442" cy="5610936"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>601583</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C3A7038-9FD8-0B2C-D342-ADE07807D007}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="7175500"/>
+          <a:ext cx="14587458" cy="8683625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,107 +832,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79EBDB3-9737-4434-AA52-D8DF00036297}">
-  <dimension ref="B2:M10"/>
+  <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="4.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="13.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="D2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>51.86</v>
+        <v>38.619999999999997</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8"/>
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>69.799148000000002</v>
+        <f>70.573609+6.427+1.958</f>
+        <v>78.958608999999996</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="H4" s="8"/>
       <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="3">
         <f>+L2*L3</f>
-        <v>3619.78381528</v>
+        <v>3049.3814795799994</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="H5" s="8"/>
       <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <f>316.065+401.182+69.824</f>
-        <v>787.07100000000003</v>
+        <f>797.8+(6.427*48)</f>
+        <v>1106.2959999999998</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
       <c r="K6" s="1" t="s">
         <v>4</v>
       </c>
@@ -726,7 +939,7 @@
       </c>
       <c r="L7" s="3">
         <f>+L4-L5+L6</f>
-        <v>2867.8358152800001</v>
+        <v>1978.2084795799997</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -749,6 +962,11 @@
       </c>
       <c r="M10" s="4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K12" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -761,9 +979,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3694330C-F7EE-45BE-95D0-AA2123ECF138}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -774,7 +994,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -792,30 +1012,130 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C12" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C15" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="3:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="C17" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="C20" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="C28" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -823,5 +1143,1018 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{644C7AF8-686C-40FA-A794-3CE36BBCC4B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFC028E-0F39-4B15-A353-C5A0AF11E04F}">
+  <dimension ref="A1:R23"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="1" customWidth="1"/>
+    <col min="3" max="14" width="8.7265625" style="1"/>
+    <col min="15" max="15" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>2025</v>
+      </c>
+      <c r="D2" s="1">
+        <f>+C2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="E2" s="1">
+        <f>+D2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="F2" s="1">
+        <f>+E2+1</f>
+        <v>2028</v>
+      </c>
+      <c r="G2" s="1">
+        <f>+F2+1</f>
+        <v>2029</v>
+      </c>
+      <c r="H2" s="1">
+        <f>+G2+1</f>
+        <v>2030</v>
+      </c>
+      <c r="I2" s="1">
+        <f>+H2+1</f>
+        <v>2031</v>
+      </c>
+      <c r="J2" s="1">
+        <f>+I2+1</f>
+        <v>2032</v>
+      </c>
+      <c r="K2" s="1">
+        <f>+J2+1</f>
+        <v>2033</v>
+      </c>
+      <c r="L2" s="1">
+        <f>+K2+1</f>
+        <v>2034</v>
+      </c>
+      <c r="M2" s="1">
+        <f>+L2+1</f>
+        <v>2035</v>
+      </c>
+      <c r="N2" s="1">
+        <f>+M2+1</f>
+        <v>2036</v>
+      </c>
+      <c r="O2" s="1">
+        <f>+N2+1</f>
+        <v>2037</v>
+      </c>
+      <c r="P2" s="1">
+        <f>+O2+1</f>
+        <v>2038</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>+P2+1</f>
+        <v>2039</v>
+      </c>
+      <c r="R2" s="1">
+        <f>+Q2+1</f>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:M3" si="0">+G3*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" si="0"/>
+        <v>24.200000000000003</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
+        <v>26.620000000000005</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="0"/>
+        <v>29.282000000000007</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
+        <v>32.210200000000007</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" si="0"/>
+        <v>35.43122000000001</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3:P3" si="1">+M3*1.03</f>
+        <v>36.494156600000011</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="1"/>
+        <v>37.588981298000014</v>
+      </c>
+      <c r="P3" s="3">
+        <f>+O3*1.03</f>
+        <v>38.716650736940018</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3:Q4" si="2">+P3*1.03</f>
+        <v>39.878150259048219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3">
+        <f>+C4*1.05</f>
+        <v>52.5</v>
+      </c>
+      <c r="E4" s="3">
+        <f>+D4*1.05</f>
+        <v>55.125</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:M4" si="3">+E4*1.05</f>
+        <v>57.881250000000001</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="3"/>
+        <v>60.775312500000005</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="3"/>
+        <v>63.814078125000009</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="3"/>
+        <v>67.004782031250016</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="3"/>
+        <v>70.355021132812524</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:N4" si="4">+J4*1.03</f>
+        <v>72.465671766796902</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="4"/>
+        <v>74.639641919800809</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="4"/>
+        <v>76.878831177394829</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" ref="N4:P4" si="5">+M4*1.03</f>
+        <v>79.185196112716682</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="5"/>
+        <v>81.56075199609819</v>
+      </c>
+      <c r="P4" s="3">
+        <f>+O4*1.03</f>
+        <v>84.007574555981137</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="2"/>
+        <v>86.527801792660568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17">
+        <f>+E3*E4</f>
+        <v>551.25</v>
+      </c>
+      <c r="F5" s="17">
+        <f>+F3*F4</f>
+        <v>868.21875</v>
+      </c>
+      <c r="G5" s="17">
+        <f>+G3*G4</f>
+        <v>1215.5062500000001</v>
+      </c>
+      <c r="H5" s="17">
+        <f>+H3*H4</f>
+        <v>1403.9097187500001</v>
+      </c>
+      <c r="I5" s="17">
+        <f>+I3*I4</f>
+        <v>1621.5157251562505</v>
+      </c>
+      <c r="J5" s="17">
+        <f>+J3*J4</f>
+        <v>1872.8506625554696</v>
+      </c>
+      <c r="K5" s="17">
+        <f>+K3*K4</f>
+        <v>2121.9398006753472</v>
+      </c>
+      <c r="L5" s="17">
+        <f>+L3*L4</f>
+        <v>2404.1577941651685</v>
+      </c>
+      <c r="M5" s="17">
+        <f>+M3*M4</f>
+        <v>2723.910780789136</v>
+      </c>
+      <c r="N5" s="17">
+        <f t="shared" ref="N5:Q5" si="6">+N3*N4</f>
+        <v>2889.7969473391945</v>
+      </c>
+      <c r="O5" s="17">
+        <f t="shared" si="6"/>
+        <v>3065.7855814321524</v>
+      </c>
+      <c r="P5" s="17">
+        <f t="shared" si="6"/>
+        <v>3252.4919233413707</v>
+      </c>
+      <c r="Q5" s="17">
+        <f t="shared" si="6"/>
+        <v>3450.5686814728601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <f>+E5*0.15</f>
+        <v>82.6875</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" ref="F6:M6" si="7">+F5*0.15</f>
+        <v>130.23281249999999</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="7"/>
+        <v>182.32593750000001</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="7"/>
+        <v>210.58645781250002</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="7"/>
+        <v>243.22735877343757</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="7"/>
+        <v>280.92759938332046</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="7"/>
+        <v>318.29097010130209</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="7"/>
+        <v>360.62366912477529</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="7"/>
+        <v>408.58661711837038</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" ref="N6" si="8">+N5*0.15</f>
+        <v>433.46954210087915</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" ref="O6" si="9">+O5*0.15</f>
+        <v>459.86783721482283</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" ref="P6" si="10">+P5*0.15</f>
+        <v>487.87378850120558</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" ref="Q6" si="11">+Q5*0.15</f>
+        <v>517.58530222092895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3">
+        <f>+C5-C6</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7:M7" si="12">+D5-D6</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="12"/>
+        <v>468.5625</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="12"/>
+        <v>737.98593749999998</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="12"/>
+        <v>1033.1803125000001</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="12"/>
+        <v>1193.3232609375002</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="12"/>
+        <v>1378.2883663828129</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="12"/>
+        <v>1591.9230631721491</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="12"/>
+        <v>1803.6488305740452</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="12"/>
+        <v>2043.5341250403933</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="12"/>
+        <v>2315.3241636707658</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" ref="N7" si="13">+N5-N6</f>
+        <v>2456.3274052383154</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" ref="O7" si="14">+O5-O6</f>
+        <v>2605.9177442173295</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" ref="P7" si="15">+P5-P6</f>
+        <v>2764.6181348401651</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" ref="Q7" si="16">+Q5-Q6</f>
+        <v>2932.9833792519312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3">
+        <v>800</v>
+      </c>
+      <c r="F8" s="3">
+        <v>700</v>
+      </c>
+      <c r="G8" s="3">
+        <v>600</v>
+      </c>
+      <c r="H8" s="3">
+        <f>+G8*0.95</f>
+        <v>570</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" ref="I8:M8" si="17">+H8*0.95</f>
+        <v>541.5</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="17"/>
+        <v>514.42499999999995</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="17"/>
+        <v>488.70374999999996</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="17"/>
+        <v>464.26856249999992</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="17"/>
+        <v>441.05513437499991</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" ref="N8:Q8" si="18">+M8*0.95</f>
+        <v>419.00237765624991</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="18"/>
+        <v>398.05225877343742</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="18"/>
+        <v>378.14964583476552</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="18"/>
+        <v>359.24216354302723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3">
+        <v>200</v>
+      </c>
+      <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
+        <f>+D9*0.8</f>
+        <v>160</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" ref="F9:M9" si="19">+E9*0.8</f>
+        <v>128</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="19"/>
+        <v>102.4</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="19"/>
+        <v>81.920000000000016</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="19"/>
+        <v>65.536000000000016</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="19"/>
+        <v>52.428800000000017</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="19"/>
+        <v>41.943040000000018</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="19"/>
+        <v>33.554432000000013</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="19"/>
+        <v>26.843545600000013</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" ref="N9:Q9" si="20">+M9*0.8</f>
+        <v>21.474836480000011</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="20"/>
+        <v>17.179869184000008</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="20"/>
+        <v>13.743895347200008</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="20"/>
+        <v>10.995116277760006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3">
+        <f>+C8+C9</f>
+        <v>200</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:M10" si="21">+D8+D9</f>
+        <v>250</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="21"/>
+        <v>960</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="21"/>
+        <v>828</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="21"/>
+        <v>702.4</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="21"/>
+        <v>651.92000000000007</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="21"/>
+        <v>607.03600000000006</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="21"/>
+        <v>566.85379999999998</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="21"/>
+        <v>530.64679000000001</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="21"/>
+        <v>497.82299449999994</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="21"/>
+        <v>467.89867997499994</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" ref="N10" si="22">+N8+N9</f>
+        <v>440.47721413624993</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" ref="O10" si="23">+O8+O9</f>
+        <v>415.2321279574374</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" ref="P10" si="24">+P8+P9</f>
+        <v>391.89354118196553</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" ref="Q10" si="25">+Q8+Q9</f>
+        <v>370.23727982078725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3">
+        <f>+C7-C10</f>
+        <v>-200</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11:M11" si="26">+D7-D10</f>
+        <v>-250</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="26"/>
+        <v>-491.4375</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="26"/>
+        <v>-90.014062500000023</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="26"/>
+        <v>330.78031250000015</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="26"/>
+        <v>541.40326093750014</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="26"/>
+        <v>771.25236638281285</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="26"/>
+        <v>1025.069263172149</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="26"/>
+        <v>1273.0020405740452</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="26"/>
+        <v>1545.7111305403932</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="26"/>
+        <v>1847.4254836957657</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" ref="N11" si="27">+N7-N10</f>
+        <v>2015.8501911020653</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" ref="O11" si="28">+O7-O10</f>
+        <v>2190.685616259892</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" ref="P11" si="29">+P7-P10</f>
+        <v>2372.7245936581994</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" ref="Q11" si="30">+Q7-Q10</f>
+        <v>2562.7460994311441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f>+E17*$O$20</f>
+        <v>1.6456250000000001</v>
+      </c>
+      <c r="G12" s="3">
+        <f>+F17*$O$20</f>
+        <v>0.7619406249999997</v>
+      </c>
+      <c r="H12" s="3">
+        <f>+G17*$O$20</f>
+        <v>4.0773631562500015</v>
+      </c>
+      <c r="I12" s="3">
+        <f>+H17*$O$20</f>
+        <v>9.5321693971875039</v>
+      </c>
+      <c r="J12" s="3">
+        <f>+I17*$O$20</f>
+        <v>17.340014754987507</v>
+      </c>
+      <c r="K12" s="3">
+        <f>+J17*$O$20</f>
+        <v>27.764107534258873</v>
+      </c>
+      <c r="L12" s="3">
+        <f>+K17*$O$20</f>
+        <v>40.771769015341917</v>
+      </c>
+      <c r="M12" s="3">
+        <f>+L17*$O$20</f>
+        <v>56.63659801089927</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" ref="N12:Q12" si="31">+M17*$O$20</f>
+        <v>75.677218827965916</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="31"/>
+        <v>96.592492927266235</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="31"/>
+        <v>119.46527401913782</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="31"/>
+        <v>144.38717269591118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3">
+        <f>+C11+C12</f>
+        <v>-200</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13:M13" si="32">+D11+D12</f>
+        <v>-250</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="32"/>
+        <v>-491.4375</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="32"/>
+        <v>-88.368437500000027</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="32"/>
+        <v>331.54225312500017</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="32"/>
+        <v>545.48062409375018</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="32"/>
+        <v>780.7845357800004</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="32"/>
+        <v>1042.4092779271366</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="32"/>
+        <v>1300.7661481083042</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="32"/>
+        <v>1586.4828995557352</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="32"/>
+        <v>1904.0620817066649</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" ref="N13" si="33">+N11+N12</f>
+        <v>2091.5274099300314</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" ref="O13" si="34">+O11+O12</f>
+        <v>2287.2781091871584</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" ref="P13" si="35">+P11+P12</f>
+        <v>2492.1898676773371</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" ref="Q13" si="36">+Q11+Q12</f>
+        <v>2707.1332721270551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <f>+G13*0.2</f>
+        <v>66.308450625000035</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" ref="H14:M14" si="37">+H13*0.2</f>
+        <v>109.09612481875004</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="37"/>
+        <v>156.1569071560001</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="37"/>
+        <v>208.48185558542733</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="37"/>
+        <v>260.15322962166084</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="37"/>
+        <v>317.29657991114709</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="37"/>
+        <v>380.81241634133301</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" ref="N14" si="38">+N13*0.2</f>
+        <v>418.30548198600627</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" ref="O14" si="39">+O13*0.2</f>
+        <v>457.45562183743169</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" ref="P14" si="40">+P13*0.2</f>
+        <v>498.43797353546745</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" ref="Q14" si="41">+Q13*0.2</f>
+        <v>541.42665442541102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="3">
+        <f>+C13-C14</f>
+        <v>-200</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:M15" si="42">+D13-D14</f>
+        <v>-250</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="42"/>
+        <v>-491.4375</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="42"/>
+        <v>-88.368437500000027</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="42"/>
+        <v>265.23380250000014</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="42"/>
+        <v>436.38449927500017</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="42"/>
+        <v>624.62762862400029</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="42"/>
+        <v>833.9274223417093</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="42"/>
+        <v>1040.6129184866434</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="42"/>
+        <v>1269.1863196445881</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="42"/>
+        <v>1523.249665365332</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" ref="N15" si="43">+N13-N14</f>
+        <v>1673.2219279440251</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" ref="O15" si="44">+O13-O14</f>
+        <v>1829.8224873497268</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" ref="P15" si="45">+P13-P14</f>
+        <v>1993.7518941418698</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" ref="Q15" si="46">+Q13-Q14</f>
+        <v>2165.7066177016441</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <f>1106+C13</f>
+        <v>906</v>
+      </c>
+      <c r="D17" s="3">
+        <f>+C17+D13</f>
+        <v>656</v>
+      </c>
+      <c r="E17" s="3">
+        <f>+D17+E13</f>
+        <v>164.5625</v>
+      </c>
+      <c r="F17" s="3">
+        <f>+E17+F13</f>
+        <v>76.194062499999973</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" ref="G17:Q17" si="47">+F17+G13</f>
+        <v>407.73631562500015</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="47"/>
+        <v>953.21693971875038</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="47"/>
+        <v>1734.0014754987508</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="47"/>
+        <v>2776.4107534258874</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="47"/>
+        <v>4077.1769015341915</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="47"/>
+        <v>5663.659801089927</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="47"/>
+        <v>7567.7218827965917</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="47"/>
+        <v>9659.249292726623</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="47"/>
+        <v>11946.527401913781</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="47"/>
+        <v>14438.717269591118</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="47"/>
+        <v>17145.850541718173</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" s="18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="3">
+        <f>NPV(O19,C15:Q15)+Main!L5-Main!L6</f>
+        <v>4944.927224685378</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" s="2">
+        <f>O21/Main!L3</f>
+        <v>62.626827996493432</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O23" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>